--- a/medicine/Médecine vétérinaire/Muhsin_Yazıcıoğlu/Muhsin_Yazıcıoğlu.xlsx
+++ b/medicine/Médecine vétérinaire/Muhsin_Yazıcıoğlu/Muhsin_Yazıcıoğlu.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Muhsin_Yaz%C4%B1c%C4%B1o%C4%9Flu</t>
+          <t>Muhsin_Yazıcıoğlu</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Muhsin Yazıcıoğlu (31 décembre 1954 à Sivas – 25 mars 2009 Kahramanmaras) est homme politique turc. Ancien militant des Loups gris et du Parti d'action nationaliste (MHP), il est le fondateur du BBP (Parti de la grande unité).  
 Aux élections législatives turques de 2007, il est le seul élu de son parti, il était candidat indépendant afin d'échapper au seuil électoral.
